--- a/test_out.xlsx
+++ b/test_out.xlsx
@@ -993,7 +993,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>1</v>
